--- a/upload/payment/счет_24546803.xlsx
+++ b/upload/payment/счет_24546803.xlsx
@@ -872,7 +872,7 @@
       <c r="B10" s="10" t="n"/>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100000</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       <c r="B23" s="5" t="n"/>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100000</t>
         </is>
       </c>
     </row>

--- a/upload/payment/счет_24546803.xlsx
+++ b/upload/payment/счет_24546803.xlsx
@@ -401,7 +401,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1504950" cy="1504950"/>
+    <ext cx="3762375" cy="3762375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -854,7 +854,7 @@
       <c r="B8" s="10" t="n"/>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Оплата участия в серии мероприятий для бизнеса "Клуба Первых" Тариф "Продление" по Договору оказания услуг ПМ-24546803 от 6.10.21</t>
+          <t>Оплата участия в серии мероприятий для бизнеса "Клуба Первых" Тариф "Продление" по Договору оказания услуг ПМ-24546803 от 5.11.21</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       <c r="B10" s="10" t="n"/>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>787342123247</t>
+          <t>75000</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       <c r="B21" s="10" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>Оплата участия в серии мероприятий для бизнеса "Клуба Первых" Тариф "Продление" по Договору оказания услуг ПМ-24546803 от 6.10.21</t>
+          <t>Оплата участия в серии мероприятий для бизнеса "Клуба Первых" Тариф "Продление" по Договору оказания услуг ПМ-24546803 от 5.11.21</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       <c r="B23" s="5" t="n"/>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>787342123247</t>
+          <t>75000</t>
         </is>
       </c>
     </row>
